--- a/biology/Microbiologie/Gélose_lysine_fer/Gélose_lysine_fer.xlsx
+++ b/biology/Microbiologie/Gélose_lysine_fer/Gélose_lysine_fer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_lysine_fer</t>
+          <t>Gélose_lysine_fer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lysine Fer est la dénomination donnée à un milieu de culture. Son nom découle de sa composition, enrichie en fer III et lysine. Il sert à mettre en évidence la LDC et la LDA pour des bactéries fermentant le glucose. La LDA est probablement la même enzyme que la TDA ou la PDA. Elle est très classique dans le groupe d'Entérobactéries Proteus-Providencia-Morganella.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_lysine_fer</t>
+          <t>Gélose_lysine_fer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">peptone de gélatine	5,0 g
 extrait de levure	3,0 g
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_lysine_fer</t>
+          <t>Gélose_lysine_fer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Lecture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En fonction de la coloration les résultats sont interprétés comme suit:
 culot jaune : glucose fermenté, LDC -
